--- a/biology/Botanique/Vaccinium/Vaccinium.xlsx
+++ b/biology/Botanique/Vaccinium/Vaccinium.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Airelles
 Vaccinium, les myrtilles et airelles, est un genre  de plantes à fleurs dicotylédones de la famille des Ericaceae, sous-famille des Vaccinioideae, à répartition quasi-cosmopolite, qui compte environ 450 espèces acceptées.
@@ -517,15 +529,17 @@
           <t>Caractéristiques générales</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les plantes du genre Vaccinium sont de petits arbres ou des arbustes et arbrisseaux, à feuilles persistantes ou caduques. Les feuilles sont alternes, lancéolées, elliptiques, ovales ou arrondies, entières ou dentées[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les plantes du genre Vaccinium sont de petits arbres ou des arbustes et arbrisseaux, à feuilles persistantes ou caduques. Les feuilles sont alternes, lancéolées, elliptiques, ovales ou arrondies, entières ou dentées.
 Les fleurs éclosent au printemps et en été, solitaires, à l'aisselle des feuilles, ou en grappes axillaires ou terminales. Ce sont des fleurs actinomorphes à symétrie tétra- ou pentamère, épigynes.
 Les lobes du calice, au nombre de cinq, sont petits et persistent sur les fruits.
 La corolle gamopétale, est arrondie à urcéolée-globuleuse, à cinq lobes minuscules à presque libres.
 Les étamines, au nombre de 8 à 10, ont des anthères qui présentent une corne tubulaire s'ouvrant par un pore terminal.
-Le pistil comprend un ovaire infère, à  4–5 loges, contenant des ovules peu nombreux, et un style unique[2].
-Les fruits sont des baies charnues (ou plus précisément des pseudo baies) souvent sphériques, rouges ou bleu foncé à maturité[2].
+Le pistil comprend un ovaire infère, à  4–5 loges, contenant des ovules peu nombreux, et un style unique.
+Les fruits sont des baies charnues (ou plus précisément des pseudo baies) souvent sphériques, rouges ou bleu foncé à maturité.
 </t>
         </is>
       </c>
@@ -554,12 +568,14 @@
           <t>Distribution et habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre contient environ 450 espèces[3], distribuées dans le monde entier à l'exception de l'Australie et de l'Antarctique. Elle se rencontrent majoritairement sur les pentes montagneuses ouvertes des tropiques, zones où le genre Vaccinium est le plus diversifié. L'Asie du Sud-Est (archipel malais , Nouvelle-Guinée, Inde, Chine et Japon) est à l'origine de près de 40 % des espèces  de Vaccinium. Environ 35 % des espèces sont originaires d'Amérique, dont 25 % en Amérique du Nord et 10 % en Amérique du Sud et en Amérique centrale. Le reste, environ 25 %, est largement dispersé dans le monde[4], notamment dans les zones les plus froides de l'hémisphère nord, des régions tempérées jusqu'aux zones circumboréales, mais aussi dans des régions aussi éloignées que  Madagascar et Hawaï[5],[6]. De nouvelles espèces sont encore découvertes dans les Andes[7].
-Le genre compte environ 130 espèces endémiques en Nouvelle-Guinée[8].
-L'espèce de Vaccinium la plus largement distribuée est probablement Vaccinium uliginosum[4], présente dans toutes les régions tempérées et froides de l'hémisphère nord[9].
-Les plantes de ce groupe ont généralement besoin de sols acides (plantes acidophiles) et, à l'état sauvage, elles vivent dans des habitats tels que landes à bruyère, tourbières et forêts acides (par exemple, myrtilles sous chênes ou pins). Les plants de myrtilles et bleuets se trouvent couramment dans les chênaies à bruyères de l'Est de l'Amérique du Nord[10],[11]. Les plantes du genre Vaccinium se trouvent à la fois dans les sites perturbés (soumis à une succession écologique) et stables, et sont adaptées au feu dans de nombreuses régions, résistant aux incendies de faible intensité et repoussant à partir des rhizomes lorsque les tissus aériens sont brûlés[5].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre contient environ 450 espèces, distribuées dans le monde entier à l'exception de l'Australie et de l'Antarctique. Elle se rencontrent majoritairement sur les pentes montagneuses ouvertes des tropiques, zones où le genre Vaccinium est le plus diversifié. L'Asie du Sud-Est (archipel malais , Nouvelle-Guinée, Inde, Chine et Japon) est à l'origine de près de 40 % des espèces  de Vaccinium. Environ 35 % des espèces sont originaires d'Amérique, dont 25 % en Amérique du Nord et 10 % en Amérique du Sud et en Amérique centrale. Le reste, environ 25 %, est largement dispersé dans le monde, notamment dans les zones les plus froides de l'hémisphère nord, des régions tempérées jusqu'aux zones circumboréales, mais aussi dans des régions aussi éloignées que  Madagascar et Hawaï,. De nouvelles espèces sont encore découvertes dans les Andes.
+Le genre compte environ 130 espèces endémiques en Nouvelle-Guinée.
+L'espèce de Vaccinium la plus largement distribuée est probablement Vaccinium uliginosum, présente dans toutes les régions tempérées et froides de l'hémisphère nord.
+Les plantes de ce groupe ont généralement besoin de sols acides (plantes acidophiles) et, à l'état sauvage, elles vivent dans des habitats tels que landes à bruyère, tourbières et forêts acides (par exemple, myrtilles sous chênes ou pins). Les plants de myrtilles et bleuets se trouvent couramment dans les chênaies à bruyères de l'Est de l'Amérique du Nord,. Les plantes du genre Vaccinium se trouvent à la fois dans les sites perturbés (soumis à une succession écologique) et stables, et sont adaptées au feu dans de nombreuses régions, résistant aux incendies de faible intensité et repoussant à partir des rhizomes lorsque les tissus aériens sont brûlés.
 </t>
         </is>
       </c>
@@ -588,14 +604,16 @@
           <t>Espèces courantes</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le genre Vaccinium regroupe plus de 400 espèces, dont les plus répandues[réf. nécessaire] sont :
-Vaccinium angustifolium (bleuet à feuilles étroites[12])
+Vaccinium angustifolium (bleuet à feuilles étroites)
 Vaccinium macrocarpon (airelle à gros fruits ou canneberge à gros atocas)
 Vaccinium microcarpum (airelle ou canneberge à petits fruits)
 Vaccinium corymbosum (airelle en corymbe* ou bleuet cultivé)
-Vaccinium myrtilloides (airelle fausse-myrtille** ou bleuet à rameau velouté[13])
+Vaccinium myrtilloides (airelle fausse-myrtille** ou bleuet à rameau velouté)
 Vaccinium myrtillus (myrtille ou myrtille sauvage)
 Vaccinium oxycoccos (airelle canneberge ou canneberge ou encore atocas)
 Vaccinium uliginosum (airelle uligineuse ou myrtille des marais ou encore myrtille de loup)
@@ -632,10 +650,49 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Étymologie
-Le nom générique, « Vaccinium », est un nom latin attesté chez les auteurs classiques sous la forme uaccinium, terme qui serait un emprunt à une langue non-indoeuropéenne. Il désignait dans l'Antiquité romaine soit l'airelle myrtille (Vaccinium myrtillus) ou l'airelle des marais Vaccinium uliginosum, soit la scille à deux feuilles (Scilla bifolia)[14]. Ce terme est attesté notamment chez Virgile (dans les Églogues), Vitruve, Ovide et Pline[15].
-Synonymes
-Selon Plants of the World online (POWO)                (20 octobre 2020)[2] : 
+          <t>Étymologie</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Le nom générique, « Vaccinium », est un nom latin attesté chez les auteurs classiques sous la forme uaccinium, terme qui serait un emprunt à une langue non-indoeuropéenne. Il désignait dans l'Antiquité romaine soit l'airelle myrtille (Vaccinium myrtillus) ou l'airelle des marais Vaccinium uliginosum, soit la scille à deux feuilles (Scilla bifolia). Ce terme est attesté notamment chez Virgile (dans les Églogues), Vitruve, Ovide et Pline.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Vaccinium</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Vaccinium</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Plants of the World online (POWO)                (20 octobre 2020) : 
 Andreusia Dunal
 Batodendron Nutt.
 Cavinium Thouars
@@ -661,8 +718,43 @@
 Symphysia C.Presl
 Tauschia Preissler
 Vitis-idaea Ség.
-Liste d'espèces
-Selon The Plant List            (20 octobre 2020)[16] :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Vaccinium</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Vaccinium</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Liste d'espèces</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon The Plant List            (20 octobre 2020) :
 Vaccinium alaskaense Howell
 Vaccinium albidens H. Lév. &amp; Vaniot
 Vaccinium almedae Wilbur &amp; Luteyn
@@ -890,66 +982,6 @@
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Vaccinium</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Vaccinium</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>Utilisation</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les baies étant comestibles, quelques espèces (notamment Vaccinium angustifolium, Vaccinium corymbosum, Vaccinium macrocarpon, Vaccinium oxycoccos et Vaccinium myrtillus, la myrtille) sont cultivées pour leurs fruits.
-Les petits fruits produits par ces espèces contiennent de nombreux métabolites végétaux secondaires ayant des activités antioxydantes, anticancéreuses et antidiabétiques, procurant des effets bénéfiques sur la santé[3].
-La sauce aux canneberges est un ingrédient traditionnel central du dîner de Noël au Royaume-Uni et du dîner de Thanksgiving en Amérique du Nord.
-De nombreuses espèces de Vaccinium sont des plantes ornementales très appréciées pour leurs feuilles, fleurs et fruits colorés[17].
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Vaccinium</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Vaccinium</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>Production</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr"/>
-    </row>
     <row r="9">
       <c r="A9" s="1" t="n">
         <v>7</v>
@@ -971,14 +1003,80 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
+          <t>Utilisation</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les baies étant comestibles, quelques espèces (notamment Vaccinium angustifolium, Vaccinium corymbosum, Vaccinium macrocarpon, Vaccinium oxycoccos et Vaccinium myrtillus, la myrtille) sont cultivées pour leurs fruits.
+Les petits fruits produits par ces espèces contiennent de nombreux métabolites végétaux secondaires ayant des activités antioxydantes, anticancéreuses et antidiabétiques, procurant des effets bénéfiques sur la santé.
+La sauce aux canneberges est un ingrédient traditionnel central du dîner de Noël au Royaume-Uni et du dîner de Thanksgiving en Amérique du Nord.
+De nombreuses espèces de Vaccinium sont des plantes ornementales très appréciées pour leurs feuilles, fleurs et fruits colorés.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Vaccinium</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Vaccinium</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Production</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Vaccinium</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Vaccinium</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
           <t>Bioaccumulation, radioactivité</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">On a montré en Ukraine, notamment après la catastrophe nucléaire de Tchernobyl, que les airelles et myrtilles et d'autres baies, et leurs feuilles, utilisées en médecine traditionnelle se sont montrées capables de bioaccumulation de certains radionucléides[18],[19],[20],[21],[22], avec toutefois de fortes variations intraspécifiques (ex : de 2-3 à 555 Bq/kg pour l'activité du strontium 90 (Sr-90) dans les myrtilles fraiches (Vaccinium myrtillus) collectées dans les pinèdes à myrtilles  (Orlov et al., 1996)[23]. Dans les zones contaminées, en juillet, au moment de la formation, des mesures ont montré que 31 % de l'activité radioactive due au césium 137 (Cs-137) était concentrée dans les feuilles, 26 % dans les fruits, 25 %  dans les pétioles, et 18 % dans les racines (Korotkova and Orlov, 1999).
-Remarque : des contaminations plus élevées, atteignant 1 028 Bq/kg de Cs-137) sont signalées chez la canneberge des marais (Oxycoccus palustris[24],[25]), avec des taux plus élevés dans les racines.
-C'est un motif de préoccupation pour les toxicologues (toxicologie nucléaire[26]), car les airelles et myrtilles sont une source traditionnelle et importante dans l'alimentation des pays de l'Est et d'Europe centrale ou du nord les plus touchés par le retombées de Tchernobyl. Ceci préoccupe aussi les écotoxicologues et écologues car de nombreux animaux sauvages s'en nourrissent, pouvant contribuer à une contamination de la chaine alimentaire (réseau trophique) et du gibier de ces régions, avec des conséquences encore mal cernées (rien que pour l'activité du Cs-137, des radioactivités dépassant 20 000 Bq/kg dans les baies forestières et les champignons, jusqu'à plus de 150 000 Bq/kg dans les champignons secs et 250 000 Bq/kg dans le gibier et 300 000 Bq/kg ont été relevées chez des poissons prédateurs [26]).
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">On a montré en Ukraine, notamment après la catastrophe nucléaire de Tchernobyl, que les airelles et myrtilles et d'autres baies, et leurs feuilles, utilisées en médecine traditionnelle se sont montrées capables de bioaccumulation de certains radionucléides avec toutefois de fortes variations intraspécifiques (ex : de 2-3 à 555 Bq/kg pour l'activité du strontium 90 (Sr-90) dans les myrtilles fraiches (Vaccinium myrtillus) collectées dans les pinèdes à myrtilles  (Orlov et al., 1996). Dans les zones contaminées, en juillet, au moment de la formation, des mesures ont montré que 31 % de l'activité radioactive due au césium 137 (Cs-137) était concentrée dans les feuilles, 26 % dans les fruits, 25 %  dans les pétioles, et 18 % dans les racines (Korotkova and Orlov, 1999).
+Remarque : des contaminations plus élevées, atteignant 1 028 Bq/kg de Cs-137) sont signalées chez la canneberge des marais (Oxycoccus palustris,), avec des taux plus élevés dans les racines.
+C'est un motif de préoccupation pour les toxicologues (toxicologie nucléaire), car les airelles et myrtilles sont une source traditionnelle et importante dans l'alimentation des pays de l'Est et d'Europe centrale ou du nord les plus touchés par le retombées de Tchernobyl. Ceci préoccupe aussi les écotoxicologues et écologues car de nombreux animaux sauvages s'en nourrissent, pouvant contribuer à une contamination de la chaine alimentaire (réseau trophique) et du gibier de ces régions, avec des conséquences encore mal cernées (rien que pour l'activité du Cs-137, des radioactivités dépassant 20 000 Bq/kg dans les baies forestières et les champignons, jusqu'à plus de 150 000 Bq/kg dans les champignons secs et 250 000 Bq/kg dans le gibier et 300 000 Bq/kg ont été relevées chez des poissons prédateurs ).
 </t>
         </is>
       </c>
